--- a/CPU_ON_BOARD/buttons_function.xlsx
+++ b/CPU_ON_BOARD/buttons_function.xlsx
@@ -14,13 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Button</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -47,15 +51,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B15:B13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B12:B11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,58 +74,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B7:B8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operands</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>High: Load Data
 Low: Idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>he d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ata will be processed.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>High: Run function
 Low: Idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +89,22 @@
   </si>
   <si>
     <t>When running, leds will show the result of processing, else, will follow buttons' changing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B12:B10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B9:B8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,14 +122,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -509,7 +466,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -529,81 +486,70 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="108" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="108" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="117" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3"/>
     </row>

--- a/CPU_ON_BOARD/buttons_function.xlsx
+++ b/CPU_ON_BOARD/buttons_function.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Button</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,14 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reserved for future use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>High: Load Data
 Low: Idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +97,18 @@
   </si>
   <si>
     <t>B9:B8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -478,7 +482,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,18 +493,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,23 +512,23 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="108" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -533,9 +537,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -543,13 +547,16 @@
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="117" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="117" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3"/>
     </row>

--- a/CPU_ON_BOARD/buttons_function.xlsx
+++ b/CPU_ON_BOARD/buttons_function.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -551,18 +551,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="10" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="117" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CPU_ON_BOARD/buttons_function.xlsx
+++ b/CPU_ON_BOARD/buttons_function.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Button</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,13 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00: A,Low
-01: A,High
-10: B,Low
-11: B,High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>High: Load Data
 Low: Idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,11 +97,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reset.</t>
+    <t>Rst_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset, active low.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B7:B0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data for processing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00: A,High
+01: A,Low
+10: B,High
+11: B,Low</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -495,13 +507,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -512,23 +524,23 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -539,24 +551,35 @@
     </row>
     <row r="7" spans="1:14" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C10" s="3"/>
     </row>
